--- a/data/from paper/uniprot-fromDavid K. Liscombe.xlsx
+++ b/data/from paper/uniprot-fromDavid K. Liscombe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\regioselectivity_prediction\data\from paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E464E2F9-049A-4B95-BEEE-DBDED912A8B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01024B4-D799-4C28-86D0-30DD5C172300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="261">
   <si>
     <t>Entry</t>
   </si>
@@ -457,9 +457,6 @@
     <t>Uroporphyrinogen-III C-methyltransferase, EC 2.1.1.107</t>
   </si>
   <si>
-    <t>Pseudomonas aeruginosa</t>
-  </si>
-  <si>
     <t>MNTTVIPPSLLDVDFPAGSVALVGAGPGDPGLLTLRAWALLQQAEVVVYDRLVARELIALLPESCQRIYVGKRCGHHSLPQEEINELLVRLARQQRRVVRLKGGDPFIFGRGAEELERLLEAGVDCQVVPGVTAASGCSTYAGIPLTHRDLAQSCTFVTGHLQNDGRLDLDWAGLARGKQTLVFYMGLGNLAEIAARLVEHGLASDTPAALVSQGTQAGQQVTRGALAELPALARRYQLKPPTLIVVGQVVALFAERAMAHPSYLGAGSPVSREAVACA</t>
   </si>
   <si>
@@ -476,24 +473,6 @@
   </si>
   <si>
     <t>MSRKNISLTESLEEYIFRNSVREPDSFLKLRKETGTLAQANMQISPEEGQFLNILTKISGAKRIIEIGTFTGYSSLCFASALPEDGKILCCDVSEEWTNVARKYWKENGLENKIFLKLGSALETLQVLIDSKSAPSWASDFAFGPSSIDLFFLDADKENYPNYYPLILKLLKPGGLLIADNVLWDGSVADLSHQEPSTVGIRKFNELVYNDSLVDVSLVPIADGVSLVRKR</t>
-  </si>
-  <si>
-    <t>1QZZ</t>
-  </si>
-  <si>
-    <t>Q54527</t>
-  </si>
-  <si>
-    <t>Aclacinomycin 10-hydroxylase RdmB, EC 4.1.1.- (15-demethoxy-epsilon-rhodomycin 10-hydroxylase) (15-demethoxyaclacinomycin T)</t>
-  </si>
-  <si>
-    <t>Streptomyces purpurascens</t>
-  </si>
-  <si>
-    <t>RHEA:45800</t>
-  </si>
-  <si>
-    <t>MSSSSPGEPLEPTDQDLDVLLKNLGNLVTPMALRVAATLRLVDHLLAGADTLAGLADRTDTHPQALSRLVRHLTVVGVLEGGEKQGRPLRPTRLGMLLADGHPAQQRAWLDLNGAVSHADLAFTGLLDVVRTGRPAYAGRYGRPFWEDLSADVALADSFDALMSCDEDLAYEAPADAYDWSAVRHVLDVGGGNGGMLAAIALRAPHLRGTLVELAGPAERARRRFADAGLADRVTVAEGDFFKPLPVTADVVLLSFVLLNWSDEDALTILRGCVRALEPGGRLLVLDRADVEGDGADRFFSTLLDLRMLTFMGGRVRTRDEVVDLAGSAGLALASERTSGSTTLPFDFSILEFTAVSEEAAPAAQASEALPAQE</t>
   </si>
   <si>
     <t>1FPQ</t>
@@ -822,6 +801,10 @@
   </si>
   <si>
     <t>RHEA:17933</t>
+  </si>
+  <si>
+    <t>Pseudomonas aeruginosa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1187,22 +1170,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="8.77734375" customWidth="1"/>
+    <col min="4" max="4" width="34.21875" customWidth="1"/>
+    <col min="5" max="5" width="30.5546875" customWidth="1"/>
     <col min="6" max="6" width="34.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1789,519 +1773,496 @@
         <v>144</v>
       </c>
       <c r="E26" t="s">
-        <v>145</v>
+        <v>260</v>
       </c>
       <c r="F26" t="s">
         <v>24</v>
       </c>
       <c r="G26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" t="s">
         <v>147</v>
-      </c>
-      <c r="B27" t="s">
-        <v>148</v>
       </c>
       <c r="C27" t="s">
         <v>21</v>
       </c>
       <c r="D27" t="s">
+        <v>148</v>
+      </c>
+      <c r="E27" t="s">
         <v>149</v>
-      </c>
-      <c r="E27" t="s">
-        <v>150</v>
       </c>
       <c r="F27" t="s">
         <v>24</v>
       </c>
       <c r="G27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B28" t="s">
         <v>152</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
         <v>153</v>
       </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>154</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>155</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>156</v>
-      </c>
-      <c r="G28" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>157</v>
+      </c>
+      <c r="B29" t="s">
         <v>158</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
         <v>159</v>
       </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>154</v>
+      </c>
+      <c r="F29" t="s">
         <v>160</v>
       </c>
-      <c r="E29" t="s">
+      <c r="G29" t="s">
         <v>161</v>
-      </c>
-      <c r="F29" t="s">
-        <v>162</v>
-      </c>
-      <c r="G29" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
         <v>164</v>
       </c>
-      <c r="B30" t="s">
+      <c r="E30" t="s">
         <v>165</v>
       </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>166</v>
       </c>
-      <c r="E30" t="s">
-        <v>161</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>167</v>
-      </c>
-      <c r="G30" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B31" t="s">
         <v>169</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
         <v>170</v>
       </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>154</v>
+      </c>
+      <c r="F31" t="s">
         <v>171</v>
       </c>
-      <c r="E31" t="s">
+      <c r="G31" t="s">
         <v>172</v>
-      </c>
-      <c r="F31" t="s">
-        <v>173</v>
-      </c>
-      <c r="G31" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>173</v>
+      </c>
+      <c r="B32" t="s">
+        <v>174</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
         <v>175</v>
       </c>
-      <c r="B32" t="s">
+      <c r="E32" t="s">
         <v>176</v>
       </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>177</v>
       </c>
-      <c r="E32" t="s">
-        <v>161</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>178</v>
-      </c>
-      <c r="G32" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>179</v>
+      </c>
+      <c r="B33" t="s">
         <v>180</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" t="s">
         <v>181</v>
       </c>
-      <c r="C33" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>182</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" t="s">
         <v>183</v>
-      </c>
-      <c r="F33" t="s">
-        <v>184</v>
-      </c>
-      <c r="G33" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" t="s">
+        <v>185</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
         <v>186</v>
       </c>
-      <c r="B34" t="s">
+      <c r="E34" t="s">
         <v>187</v>
       </c>
-      <c r="C34" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>188</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>189</v>
-      </c>
-      <c r="F34" t="s">
-        <v>24</v>
-      </c>
-      <c r="G34" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>190</v>
+      </c>
+      <c r="B35" t="s">
         <v>191</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
         <v>192</v>
       </c>
-      <c r="C35" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>193</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
         <v>194</v>
-      </c>
-      <c r="F35" t="s">
-        <v>195</v>
-      </c>
-      <c r="G35" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
         <v>197</v>
       </c>
-      <c r="B36" t="s">
+      <c r="E36" t="s">
+        <v>187</v>
+      </c>
+      <c r="F36" t="s">
         <v>198</v>
       </c>
-      <c r="C36" t="s">
-        <v>21</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="G36" t="s">
         <v>199</v>
-      </c>
-      <c r="E36" t="s">
-        <v>200</v>
-      </c>
-      <c r="F36" t="s">
-        <v>24</v>
-      </c>
-      <c r="G36" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
         <v>202</v>
       </c>
-      <c r="B37" t="s">
+      <c r="E37" t="s">
         <v>203</v>
       </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>204</v>
       </c>
-      <c r="E37" t="s">
-        <v>194</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>205</v>
-      </c>
-      <c r="G37" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" t="s">
         <v>207</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
         <v>208</v>
       </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>203</v>
+      </c>
+      <c r="F38" t="s">
         <v>209</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>210</v>
-      </c>
-      <c r="F38" t="s">
-        <v>211</v>
-      </c>
-      <c r="G38" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
         <v>213</v>
       </c>
-      <c r="B39" t="s">
+      <c r="E39" t="s">
         <v>214</v>
       </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>215</v>
       </c>
-      <c r="E39" t="s">
-        <v>210</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>216</v>
-      </c>
-      <c r="G39" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>217</v>
+      </c>
+      <c r="B40" t="s">
         <v>218</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
         <v>219</v>
       </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>220</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>221</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>222</v>
-      </c>
-      <c r="G40" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>223</v>
+      </c>
+      <c r="B41" t="s">
         <v>224</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
         <v>225</v>
       </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>220</v>
+      </c>
+      <c r="F41" t="s">
         <v>226</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>227</v>
-      </c>
-      <c r="F41" t="s">
-        <v>228</v>
-      </c>
-      <c r="G41" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>228</v>
+      </c>
+      <c r="B42" t="s">
+        <v>229</v>
+      </c>
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
         <v>230</v>
       </c>
-      <c r="B42" t="s">
+      <c r="E42" t="s">
         <v>231</v>
       </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>232</v>
       </c>
-      <c r="E42" t="s">
-        <v>227</v>
-      </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>233</v>
-      </c>
-      <c r="G42" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>234</v>
+      </c>
+      <c r="B43" t="s">
         <v>235</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
         <v>236</v>
       </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
+        <v>231</v>
+      </c>
+      <c r="F43" t="s">
         <v>237</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>238</v>
-      </c>
-      <c r="F43" t="s">
-        <v>239</v>
-      </c>
-      <c r="G43" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>239</v>
+      </c>
+      <c r="B44" t="s">
+        <v>240</v>
+      </c>
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
         <v>241</v>
       </c>
-      <c r="B44" t="s">
+      <c r="E44" t="s">
+        <v>220</v>
+      </c>
+      <c r="F44" t="s">
         <v>242</v>
       </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="G44" t="s">
         <v>243</v>
-      </c>
-      <c r="E44" t="s">
-        <v>238</v>
-      </c>
-      <c r="F44" t="s">
-        <v>244</v>
-      </c>
-      <c r="G44" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>244</v>
+      </c>
+      <c r="B45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C45" t="s">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
         <v>246</v>
       </c>
-      <c r="B45" t="s">
+      <c r="E45" t="s">
         <v>247</v>
       </c>
-      <c r="C45" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" t="s">
+      <c r="F45" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" t="s">
         <v>248</v>
-      </c>
-      <c r="E45" t="s">
-        <v>227</v>
-      </c>
-      <c r="F45" t="s">
-        <v>249</v>
-      </c>
-      <c r="G45" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>249</v>
+      </c>
+      <c r="B46" t="s">
+        <v>250</v>
+      </c>
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
         <v>251</v>
       </c>
-      <c r="B46" t="s">
+      <c r="E46" t="s">
+        <v>231</v>
+      </c>
+      <c r="F46" t="s">
         <v>252</v>
       </c>
-      <c r="C46" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="G46" t="s">
         <v>253</v>
       </c>
-      <c r="E46" t="s">
-        <v>254</v>
-      </c>
-      <c r="F46" t="s">
-        <v>24</v>
-      </c>
-      <c r="G46" t="s">
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>255</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>256</v>
-      </c>
-      <c r="B47" t="s">
-        <v>257</v>
-      </c>
-      <c r="C47" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" t="s">
-        <v>258</v>
-      </c>
-      <c r="E47" t="s">
-        <v>238</v>
-      </c>
-      <c r="F47" t="s">
-        <v>259</v>
-      </c>
-      <c r="G47" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="F48" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/data/from paper/uniprot-fromDavid K. Liscombe.xlsx
+++ b/data/from paper/uniprot-fromDavid K. Liscombe.xlsx
@@ -8,19 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\regioselectivity_prediction\data\from paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A01024B4-D799-4C28-86D0-30DD5C172300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B752EC2-F1BE-4699-8DD2-7DBF8928A541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30630" yWindow="3075" windowWidth="20850" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet0!$A$1:$I$47</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="270">
   <si>
     <t>Entry</t>
   </si>
@@ -86,12 +89,6 @@
   </si>
   <si>
     <t>unreviewed</t>
-  </si>
-  <si>
-    <t>O-methyltransferase</t>
-  </si>
-  <si>
-    <t>Synechocystis sp. (strain PCC 6803 / Kazusa)</t>
   </si>
   <si>
     <t/>
@@ -804,6 +801,69 @@
   </si>
   <si>
     <t>Pseudomonas aeruginosa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Synechocystis sp. (strain PCC 6803 / Kazusa)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O-methyltransferase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PubChem CID</t>
+  </si>
+  <si>
+    <t>MIBiG protein</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MIBiG ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACZ13460.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>it utilizes </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Open Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t>-adenosylmethionine to methylate a variety of phosphonates including 1-hydroxyethylphosphonate, 1,2-dihydroxyethylphosphonate, and acetyl-1-aminoethylphosphonate. </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.pnas.org/doi/full/10.1073/pnas.1006848107</t>
+  </si>
+  <si>
+    <t>BGC0000897</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -811,7 +871,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -825,6 +885,44 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF5B616B"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -849,13 +947,19 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1170,23 +1274,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G47"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="17.109375" customWidth="1"/>
-    <col min="4" max="4" width="34.21875" customWidth="1"/>
+    <col min="4" max="4" width="51.5546875" customWidth="1"/>
     <col min="5" max="5" width="30.5546875" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1206,8 +1311,17 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1230,7 +1344,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -1253,7 +1367,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1264,1008 +1378,1036 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>260</v>
       </c>
       <c r="E4" t="s">
+        <v>259</v>
+      </c>
+      <c r="F4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" s="3">
+        <v>290380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="B5" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>27</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
       </c>
       <c r="D5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
         <v>28</v>
       </c>
-      <c r="E5" t="s">
+      <c r="H5" s="3">
+        <v>5353357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
         <v>31</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
+      <c r="G6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s">
+    </row>
+    <row r="7" spans="1:12" ht="15.6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>35</v>
       </c>
-      <c r="G6" t="s">
+      <c r="B7" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
         <v>39</v>
       </c>
-      <c r="E7" t="s">
+      <c r="H7" t="s">
+        <v>269</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>40</v>
       </c>
-      <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="B8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" t="s">
+      <c r="E8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>45</v>
       </c>
-      <c r="F8" t="s">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>46</v>
       </c>
-      <c r="G8" t="s">
+      <c r="B9" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" t="s">
-        <v>49</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
       </c>
       <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" t="s">
+    </row>
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>51</v>
       </c>
-      <c r="F9" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="B10" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
         <v>53</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>54</v>
       </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>55</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>56</v>
       </c>
-      <c r="F10" t="s">
+    </row>
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>57</v>
       </c>
-      <c r="G10" t="s">
+      <c r="B11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
         <v>59</v>
       </c>
-      <c r="B11" t="s">
+      <c r="E11" t="s">
         <v>60</v>
       </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>61</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>62</v>
       </c>
-      <c r="F11" t="s">
+    </row>
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="G11" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
         <v>65</v>
       </c>
-      <c r="B12" t="s">
+      <c r="E12" t="s">
         <v>66</v>
       </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>67</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>68</v>
       </c>
-      <c r="F12" t="s">
+    </row>
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>69</v>
       </c>
-      <c r="G12" t="s">
+      <c r="B13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
         <v>71</v>
       </c>
-      <c r="B13" t="s">
+      <c r="E13" t="s">
         <v>72</v>
       </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>73</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>74</v>
       </c>
-      <c r="F13" t="s">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>75</v>
       </c>
-      <c r="G13" t="s">
+      <c r="B14" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>77</v>
-      </c>
-      <c r="B14" t="s">
-        <v>78</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
       </c>
       <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
         <v>79</v>
       </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>80</v>
       </c>
-      <c r="F14" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="B15" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" t="s">
-        <v>83</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
       </c>
       <c r="D15" t="s">
+        <v>82</v>
+      </c>
+      <c r="E15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
         <v>84</v>
       </c>
-      <c r="E15" t="s">
+    </row>
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>85</v>
       </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="B16" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
         <v>87</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16" t="s">
         <v>88</v>
       </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>89</v>
       </c>
-      <c r="E16" t="s">
+      <c r="G16" t="s">
         <v>90</v>
       </c>
-      <c r="F16" t="s">
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>91</v>
       </c>
-      <c r="G16" t="s">
+      <c r="B17" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
         <v>93</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17" t="s">
         <v>94</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="F17" t="s">
         <v>95</v>
       </c>
-      <c r="E17" t="s">
+      <c r="G17" t="s">
         <v>96</v>
       </c>
-      <c r="F17" t="s">
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>97</v>
       </c>
-      <c r="G17" t="s">
+      <c r="B18" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
         <v>99</v>
       </c>
-      <c r="B18" t="s">
+      <c r="E18" t="s">
         <v>100</v>
       </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="F18" t="s">
         <v>101</v>
       </c>
-      <c r="E18" t="s">
+      <c r="G18" t="s">
         <v>102</v>
       </c>
-      <c r="F18" t="s">
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>103</v>
       </c>
-      <c r="G18" t="s">
+      <c r="B19" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
         <v>105</v>
       </c>
-      <c r="B19" t="s">
+      <c r="E19" t="s">
         <v>106</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="F19" t="s">
         <v>107</v>
       </c>
-      <c r="E19" t="s">
+      <c r="G19" t="s">
         <v>108</v>
       </c>
-      <c r="F19" t="s">
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>109</v>
       </c>
-      <c r="G19" t="s">
+      <c r="B20" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
         <v>111</v>
       </c>
-      <c r="B20" t="s">
+      <c r="E20" t="s">
         <v>112</v>
       </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="F20" t="s">
         <v>113</v>
       </c>
-      <c r="E20" t="s">
+      <c r="G20" t="s">
         <v>114</v>
       </c>
-      <c r="F20" t="s">
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>115</v>
       </c>
-      <c r="G20" t="s">
+      <c r="B21" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
         <v>117</v>
       </c>
-      <c r="B21" t="s">
+      <c r="E21" t="s">
         <v>118</v>
       </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="F21" t="s">
         <v>119</v>
       </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>120</v>
       </c>
-      <c r="F21" t="s">
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>121</v>
       </c>
-      <c r="G21" t="s">
+      <c r="B22" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
         <v>123</v>
       </c>
-      <c r="B22" t="s">
+      <c r="E22" t="s">
         <v>124</v>
       </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="F22" t="s">
         <v>125</v>
       </c>
-      <c r="E22" t="s">
+      <c r="G22" t="s">
         <v>126</v>
-      </c>
-      <c r="F22" t="s">
-        <v>127</v>
-      </c>
-      <c r="G22" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B23" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
       </c>
       <c r="D25" t="s">
+        <v>137</v>
+      </c>
+      <c r="E25" t="s">
+        <v>138</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
         <v>139</v>
-      </c>
-      <c r="E25" t="s">
-        <v>140</v>
-      </c>
-      <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B26" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C26" t="s">
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E26" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C27" t="s">
         <v>21</v>
       </c>
       <c r="D27" t="s">
+        <v>146</v>
+      </c>
+      <c r="E27" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" t="s">
         <v>148</v>
       </c>
-      <c r="E27" t="s">
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>149</v>
       </c>
-      <c r="F27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="B28" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
         <v>151</v>
       </c>
-      <c r="B28" t="s">
+      <c r="E28" t="s">
         <v>152</v>
       </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>153</v>
       </c>
-      <c r="E28" t="s">
+      <c r="G28" t="s">
         <v>154</v>
       </c>
-      <c r="F28" t="s">
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>155</v>
       </c>
-      <c r="G28" t="s">
+      <c r="B29" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
         <v>157</v>
       </c>
-      <c r="B29" t="s">
+      <c r="E29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29" t="s">
         <v>158</v>
       </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="G29" t="s">
         <v>159</v>
       </c>
-      <c r="E29" t="s">
-        <v>154</v>
-      </c>
-      <c r="F29" t="s">
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>160</v>
       </c>
-      <c r="G29" t="s">
+      <c r="B30" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
         <v>162</v>
       </c>
-      <c r="B30" t="s">
+      <c r="E30" t="s">
         <v>163</v>
       </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="F30" t="s">
         <v>164</v>
       </c>
-      <c r="E30" t="s">
+      <c r="G30" t="s">
         <v>165</v>
       </c>
-      <c r="F30" t="s">
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>166</v>
       </c>
-      <c r="G30" t="s">
+      <c r="B31" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
         <v>168</v>
       </c>
-      <c r="B31" t="s">
+      <c r="E31" t="s">
+        <v>152</v>
+      </c>
+      <c r="F31" t="s">
         <v>169</v>
       </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="G31" t="s">
         <v>170</v>
       </c>
-      <c r="E31" t="s">
-        <v>154</v>
-      </c>
-      <c r="F31" t="s">
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>171</v>
       </c>
-      <c r="G31" t="s">
+      <c r="B32" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
         <v>173</v>
       </c>
-      <c r="B32" t="s">
+      <c r="E32" t="s">
         <v>174</v>
       </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="F32" t="s">
         <v>175</v>
       </c>
-      <c r="E32" t="s">
+      <c r="G32" t="s">
         <v>176</v>
-      </c>
-      <c r="F32" t="s">
-        <v>177</v>
-      </c>
-      <c r="G32" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C33" t="s">
         <v>21</v>
       </c>
       <c r="D33" t="s">
+        <v>179</v>
+      </c>
+      <c r="E33" t="s">
+        <v>180</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
         <v>181</v>
       </c>
-      <c r="E33" t="s">
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>182</v>
       </c>
-      <c r="F33" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="B34" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
         <v>184</v>
       </c>
-      <c r="B34" t="s">
+      <c r="E34" t="s">
         <v>185</v>
       </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="F34" t="s">
         <v>186</v>
       </c>
-      <c r="E34" t="s">
+      <c r="G34" t="s">
         <v>187</v>
-      </c>
-      <c r="F34" t="s">
-        <v>188</v>
-      </c>
-      <c r="G34" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B35" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C35" t="s">
         <v>21</v>
       </c>
       <c r="D35" t="s">
+        <v>190</v>
+      </c>
+      <c r="E35" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
         <v>192</v>
       </c>
-      <c r="E35" t="s">
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>193</v>
       </c>
-      <c r="F35" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="B36" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
         <v>195</v>
       </c>
-      <c r="B36" t="s">
+      <c r="E36" t="s">
+        <v>185</v>
+      </c>
+      <c r="F36" t="s">
         <v>196</v>
       </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="G36" t="s">
         <v>197</v>
       </c>
-      <c r="E36" t="s">
-        <v>187</v>
-      </c>
-      <c r="F36" t="s">
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>198</v>
       </c>
-      <c r="G36" t="s">
+      <c r="B37" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
         <v>200</v>
       </c>
-      <c r="B37" t="s">
+      <c r="E37" t="s">
         <v>201</v>
       </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
         <v>202</v>
       </c>
-      <c r="E37" t="s">
+      <c r="G37" t="s">
         <v>203</v>
       </c>
-      <c r="F37" t="s">
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>204</v>
       </c>
-      <c r="G37" t="s">
+      <c r="B38" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
         <v>206</v>
       </c>
-      <c r="B38" t="s">
+      <c r="E38" t="s">
+        <v>201</v>
+      </c>
+      <c r="F38" t="s">
         <v>207</v>
       </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="G38" t="s">
         <v>208</v>
       </c>
-      <c r="E38" t="s">
-        <v>203</v>
-      </c>
-      <c r="F38" t="s">
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>209</v>
       </c>
-      <c r="G38" t="s">
+      <c r="B39" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
         <v>211</v>
       </c>
-      <c r="B39" t="s">
+      <c r="E39" t="s">
         <v>212</v>
       </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>213</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>214</v>
       </c>
-      <c r="F39" t="s">
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>215</v>
       </c>
-      <c r="G39" t="s">
+      <c r="B40" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
         <v>217</v>
       </c>
-      <c r="B40" t="s">
+      <c r="E40" t="s">
         <v>218</v>
       </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="F40" t="s">
         <v>219</v>
       </c>
-      <c r="E40" t="s">
+      <c r="G40" t="s">
         <v>220</v>
       </c>
-      <c r="F40" t="s">
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>221</v>
       </c>
-      <c r="G40" t="s">
+      <c r="B41" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
         <v>223</v>
       </c>
-      <c r="B41" t="s">
+      <c r="E41" t="s">
+        <v>218</v>
+      </c>
+      <c r="F41" t="s">
         <v>224</v>
       </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="G41" t="s">
         <v>225</v>
       </c>
-      <c r="E41" t="s">
-        <v>220</v>
-      </c>
-      <c r="F41" t="s">
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>226</v>
       </c>
-      <c r="G41" t="s">
+      <c r="B42" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
         <v>228</v>
       </c>
-      <c r="B42" t="s">
+      <c r="E42" t="s">
         <v>229</v>
       </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>230</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>231</v>
       </c>
-      <c r="F42" t="s">
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>232</v>
       </c>
-      <c r="G42" t="s">
+      <c r="B43" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
         <v>234</v>
       </c>
-      <c r="B43" t="s">
+      <c r="E43" t="s">
+        <v>229</v>
+      </c>
+      <c r="F43" t="s">
         <v>235</v>
       </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="G43" t="s">
         <v>236</v>
       </c>
-      <c r="E43" t="s">
-        <v>231</v>
-      </c>
-      <c r="F43" t="s">
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>237</v>
       </c>
-      <c r="G43" t="s">
+      <c r="B44" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
         <v>239</v>
       </c>
-      <c r="B44" t="s">
+      <c r="E44" t="s">
+        <v>218</v>
+      </c>
+      <c r="F44" t="s">
         <v>240</v>
       </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="G44" t="s">
         <v>241</v>
-      </c>
-      <c r="E44" t="s">
-        <v>220</v>
-      </c>
-      <c r="F44" t="s">
-        <v>242</v>
-      </c>
-      <c r="G44" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B45" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C45" t="s">
         <v>21</v>
       </c>
       <c r="D45" t="s">
+        <v>244</v>
+      </c>
+      <c r="E45" t="s">
+        <v>245</v>
+      </c>
+      <c r="F45" t="s">
+        <v>22</v>
+      </c>
+      <c r="G45" t="s">
         <v>246</v>
       </c>
-      <c r="E45" t="s">
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>247</v>
       </c>
-      <c r="F45" t="s">
-        <v>24</v>
-      </c>
-      <c r="G45" t="s">
+      <c r="B46" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
         <v>249</v>
       </c>
-      <c r="B46" t="s">
+      <c r="E46" t="s">
+        <v>229</v>
+      </c>
+      <c r="F46" t="s">
         <v>250</v>
       </c>
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="G46" t="s">
         <v>251</v>
       </c>
-      <c r="E46" t="s">
-        <v>231</v>
-      </c>
-      <c r="F46" t="s">
-        <v>252</v>
-      </c>
-      <c r="G46" t="s">
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
   </sheetData>
+  <autoFilter ref="A1:I47" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="unreviewed"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/from paper/uniprot-fromDavid K. Liscombe.xlsx
+++ b/data/from paper/uniprot-fromDavid K. Liscombe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Download\regioselectivity_prediction\data\from paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B752EC2-F1BE-4699-8DD2-7DBF8928A541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9123F86-37FF-4C53-809A-15E21E63894B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30630" yWindow="3075" windowWidth="20850" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28290" yWindow="2325" windowWidth="20850" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="270">
   <si>
     <t>Entry</t>
   </si>
@@ -254,9 +254,6 @@
   </si>
   <si>
     <t>O52805</t>
-  </si>
-  <si>
-    <t>PCZA361.24</t>
   </si>
   <si>
     <t>Amycolatopsis orientalis (Nocardia orientalis)</t>
@@ -864,6 +861,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCZA361.24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1277,8 +1278,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F48" sqref="F48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1287,11 +1288,12 @@
     <col min="4" max="4" width="51.5546875" customWidth="1"/>
     <col min="5" max="5" width="30.5546875" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1312,13 +1314,13 @@
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1378,13 +1380,13 @@
         <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -1465,19 +1467,19 @@
         <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I7" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K7" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="J7" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="K7" s="5" t="s">
+      <c r="L7" s="4" t="s">
         <v>266</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
@@ -1525,6 +1527,9 @@
       <c r="G9" t="s">
         <v>50</v>
       </c>
+      <c r="H9" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -1629,775 +1634,805 @@
         <v>21</v>
       </c>
       <c r="D14" t="s">
+        <v>269</v>
+      </c>
+      <c r="E14" t="s">
         <v>77</v>
-      </c>
-      <c r="E14" t="s">
-        <v>78</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="H14" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" t="s">
         <v>80</v>
-      </c>
-      <c r="B15" t="s">
-        <v>81</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
       </c>
       <c r="D15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s">
         <v>82</v>
-      </c>
-      <c r="E15" t="s">
-        <v>83</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>84</v>
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
         <v>85</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
         <v>86</v>
       </c>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>87</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>88</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>89</v>
       </c>
-      <c r="G16" t="s">
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B17" t="s">
         <v>91</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
         <v>92</v>
       </c>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>93</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>94</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>95</v>
       </c>
-      <c r="G17" t="s">
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="B18" t="s">
         <v>97</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
         <v>98</v>
       </c>
-      <c r="C18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>99</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>100</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>101</v>
       </c>
-      <c r="G18" t="s">
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B19" t="s">
         <v>103</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
         <v>104</v>
       </c>
-      <c r="C19" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>105</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>106</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>107</v>
       </c>
-      <c r="G19" t="s">
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B20" t="s">
         <v>109</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
         <v>110</v>
       </c>
-      <c r="C20" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>111</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>112</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>113</v>
       </c>
-      <c r="G20" t="s">
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B21" t="s">
         <v>115</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" t="s">
         <v>116</v>
       </c>
-      <c r="C21" t="s">
-        <v>8</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>117</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>118</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>119</v>
       </c>
-      <c r="G21" t="s">
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="B22" t="s">
         <v>121</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" t="s">
         <v>122</v>
       </c>
-      <c r="C22" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>123</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>124</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>125</v>
       </c>
-      <c r="G22" t="s">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B23" t="s">
         <v>127</v>
-      </c>
-      <c r="B23" t="s">
-        <v>128</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E23" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F23" t="s">
         <v>22</v>
       </c>
       <c r="G23" t="s">
+        <v>129</v>
+      </c>
+      <c r="H23" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B24" t="s">
         <v>131</v>
-      </c>
-      <c r="B24" t="s">
-        <v>132</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
       </c>
       <c r="D24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
         <v>22</v>
       </c>
       <c r="G24" t="s">
+        <v>133</v>
+      </c>
+      <c r="H24" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B25" t="s">
         <v>135</v>
-      </c>
-      <c r="B25" t="s">
-        <v>136</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
       </c>
       <c r="D25" t="s">
+        <v>136</v>
+      </c>
+      <c r="E25" t="s">
         <v>137</v>
-      </c>
-      <c r="E25" t="s">
-        <v>138</v>
       </c>
       <c r="F25" t="s">
         <v>22</v>
       </c>
       <c r="G25" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B26" t="s">
         <v>140</v>
-      </c>
-      <c r="B26" t="s">
-        <v>141</v>
       </c>
       <c r="C26" t="s">
         <v>21</v>
       </c>
       <c r="D26" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F26" t="s">
         <v>22</v>
       </c>
       <c r="G26" t="s">
+        <v>142</v>
+      </c>
+      <c r="H26" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B27" t="s">
         <v>144</v>
-      </c>
-      <c r="B27" t="s">
-        <v>145</v>
       </c>
       <c r="C27" t="s">
         <v>21</v>
       </c>
       <c r="D27" t="s">
+        <v>145</v>
+      </c>
+      <c r="E27" t="s">
         <v>146</v>
-      </c>
-      <c r="E27" t="s">
-        <v>147</v>
       </c>
       <c r="F27" t="s">
         <v>22</v>
       </c>
       <c r="G27" t="s">
+        <v>147</v>
+      </c>
+      <c r="H27" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="B28" t="s">
         <v>149</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s">
         <v>150</v>
       </c>
-      <c r="C28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>151</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>152</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>153</v>
       </c>
-      <c r="G28" t="s">
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="B29" t="s">
         <v>155</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
         <v>156</v>
       </c>
-      <c r="C29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" t="s">
         <v>157</v>
       </c>
-      <c r="E29" t="s">
-        <v>152</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>158</v>
       </c>
-      <c r="G29" t="s">
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="B30" t="s">
         <v>160</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" t="s">
         <v>161</v>
       </c>
-      <c r="C30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>162</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>163</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>164</v>
       </c>
-      <c r="G30" t="s">
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+      <c r="B31" t="s">
         <v>166</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
         <v>167</v>
       </c>
-      <c r="C31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" t="s">
         <v>168</v>
       </c>
-      <c r="E31" t="s">
-        <v>152</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>169</v>
       </c>
-      <c r="G31" t="s">
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>171</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
         <v>172</v>
       </c>
-      <c r="C32" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
         <v>173</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>174</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>175</v>
       </c>
-      <c r="G32" t="s">
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B33" t="s">
         <v>177</v>
-      </c>
-      <c r="B33" t="s">
-        <v>178</v>
       </c>
       <c r="C33" t="s">
         <v>21</v>
       </c>
       <c r="D33" t="s">
+        <v>178</v>
+      </c>
+      <c r="E33" t="s">
         <v>179</v>
-      </c>
-      <c r="E33" t="s">
-        <v>180</v>
       </c>
       <c r="F33" t="s">
         <v>22</v>
       </c>
       <c r="G33" t="s">
+        <v>180</v>
+      </c>
+      <c r="H33" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B34" t="s">
         <v>182</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
         <v>183</v>
       </c>
-      <c r="C34" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>184</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>185</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>186</v>
       </c>
-      <c r="G34" t="s">
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="B35" t="s">
         <v>188</v>
-      </c>
-      <c r="B35" t="s">
-        <v>189</v>
       </c>
       <c r="C35" t="s">
         <v>21</v>
       </c>
       <c r="D35" t="s">
+        <v>189</v>
+      </c>
+      <c r="E35" t="s">
         <v>190</v>
-      </c>
-      <c r="E35" t="s">
-        <v>191</v>
       </c>
       <c r="F35" t="s">
         <v>22</v>
       </c>
       <c r="G35" t="s">
+        <v>191</v>
+      </c>
+      <c r="H35" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="B36" t="s">
         <v>193</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
         <v>194</v>
       </c>
-      <c r="C36" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" t="s">
         <v>195</v>
       </c>
-      <c r="E36" t="s">
-        <v>185</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>196</v>
       </c>
-      <c r="G36" t="s">
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="B37" t="s">
         <v>198</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
         <v>199</v>
       </c>
-      <c r="C37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>200</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>201</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>202</v>
       </c>
-      <c r="G37" t="s">
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
         <v>204</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
         <v>205</v>
       </c>
-      <c r="C38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
+        <v>200</v>
+      </c>
+      <c r="F38" t="s">
         <v>206</v>
       </c>
-      <c r="E38" t="s">
-        <v>201</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>207</v>
       </c>
-      <c r="G38" t="s">
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="B39" t="s">
         <v>209</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
         <v>210</v>
       </c>
-      <c r="C39" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>211</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>212</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>213</v>
       </c>
-      <c r="G39" t="s">
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
+      <c r="B40" t="s">
         <v>215</v>
       </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
         <v>216</v>
       </c>
-      <c r="C40" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>217</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>218</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>219</v>
       </c>
-      <c r="G40" t="s">
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="B41" t="s">
         <v>221</v>
       </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" t="s">
         <v>222</v>
       </c>
-      <c r="C41" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
+        <v>217</v>
+      </c>
+      <c r="F41" t="s">
         <v>223</v>
       </c>
-      <c r="E41" t="s">
-        <v>218</v>
-      </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>224</v>
       </c>
-      <c r="G41" t="s">
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
         <v>226</v>
       </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" t="s">
         <v>227</v>
       </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>228</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>229</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>230</v>
       </c>
-      <c r="G42" t="s">
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
         <v>232</v>
       </c>
-      <c r="B43" t="s">
+      <c r="C43" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" t="s">
         <v>233</v>
       </c>
-      <c r="C43" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
+        <v>228</v>
+      </c>
+      <c r="F43" t="s">
         <v>234</v>
       </c>
-      <c r="E43" t="s">
-        <v>229</v>
-      </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>235</v>
       </c>
-      <c r="G43" t="s">
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B44" t="s">
         <v>237</v>
       </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" t="s">
         <v>238</v>
       </c>
-      <c r="C44" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
+        <v>217</v>
+      </c>
+      <c r="F44" t="s">
         <v>239</v>
       </c>
-      <c r="E44" t="s">
-        <v>218</v>
-      </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>240</v>
       </c>
-      <c r="G44" t="s">
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>242</v>
-      </c>
-      <c r="B45" t="s">
-        <v>243</v>
       </c>
       <c r="C45" t="s">
         <v>21</v>
       </c>
       <c r="D45" t="s">
+        <v>243</v>
+      </c>
+      <c r="E45" t="s">
         <v>244</v>
-      </c>
-      <c r="E45" t="s">
-        <v>245</v>
       </c>
       <c r="F45" t="s">
         <v>22</v>
       </c>
       <c r="G45" t="s">
+        <v>245</v>
+      </c>
+      <c r="H45" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="B46" t="s">
         <v>247</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C46" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" t="s">
         <v>248</v>
       </c>
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
+        <v>228</v>
+      </c>
+      <c r="F46" t="s">
         <v>249</v>
       </c>
-      <c r="E46" t="s">
-        <v>229</v>
-      </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>250</v>
       </c>
-      <c r="G46" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B47" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="C47" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="G47" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2410,5 +2445,6 @@
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>